--- a/InputFiles/ICDC/TC16_Canine_StudyGlioma-FileAssoc_FileType_FileFormat.xlsx
+++ b/InputFiles/ICDC/TC16_Canine_StudyGlioma-FileAssoc_FileType_FileFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F031CD2-B178-4E03-AB27-C0CDF9887BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B626FB-B593-4F81-9391-350103C96213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -60,58 +60,42 @@
     <t>StudyFilesTab</t>
   </si>
   <si>
-    <t>TC15_Canine_StudyGlioma-SampSite_SampType_SampPathology_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC15_Canine_StudyGlioma-SampSite_SampType_SampPathology_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (c)&lt;--(samp:sample)
- MATCH (cf:file)-[*]-&gt;(c)
- MATCH (f:file)--&gt;(parent)
- MATCH (cf)--&gt;(samp:sample)
-WHERE  s.clinical_study_designation in ['GLIOMA01'] and samp.sample_site in ['Hemispheric'] and samp.summarized_sample_type in ['Primary Malignant Tumor Tissue'] and samp.specific_sample_pathology in ['Oligodendroglioma']
+    <t>TC16_Canine_StudyGlioma-FileAssoc_FileType_FileFormat_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC16_Canine_StudyGlioma-FileAssoc_FileType_FileFormat_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
 OPTIONAL MATCH (sf:file)--&gt;(s)
-MATCH (cf:file)-[*]-&gt;(c:case)
-RETURN
-	count(distinct p) AS Programs,
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
+MATCH (f:file)--&gt;(parent)
+WHERE s.clinical_study_designation IN ['GLIOMA01'] and labels(parent)[0] IN ['case'] and f.file_format in ['gz'] and f.file_type in ['Variant Call File']
+RETURN  
+    count(distinct p) AS Programs,
     count(distinct s) AS Studies,
     count(distinct c) AS Cases,
     count(distinct samp) AS Samples,
-    count(distinct cf) AS `Case Files`,
+    count(distinct f) AS `Case Files`,
     count(distinct sf) AS `Study Files`</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis), (c)&lt;--(samp:sample)
-MATCH (f:file)--&gt;(parent)
-WHERE  s.clinical_study_designation in ['GLIOMA01'] and demo.neutered_indicator in ['No'] and samp.summarized_sample_type in ['Normal Tissue'] and f.file_type in ['Index File']
-OPTIONAL MATCH (samp:sample)--&gt;(c)
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+WHERE labels(parent)[0] IN ['case'] AND s.clinical_study_designation in ['GLIOMA01'] and f.file_format in ['gz'] and f.file_type in ['Variant Call File']
+MATCH (c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp:sample)--&gt;(c) 
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age, demo.weight as weight
-RETURN coalesce(c.case_id, '') AS `Case ID` ,
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  coalesce(c.case_id, '') AS `Case ID` ,
         coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS `Study Type`,MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis), (c)&lt;--(samp:sample)
-MATCH (f:file)--&gt;(parent)
-WHERE  s.clinical_study_designation in ['GLIOMA01'] and samp.sample_site in ['Hemispheric'] and samp.summarized_sample_type in ['Primary Malignant Tumor Tissue'] and samp.specific_sample_pathology in ['Oligodendroglioma']
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age, demo.weight as weight
-RETURN coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-  coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
-       coalesce(demo.sex, '') AS Sex,
-       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
-       coalesce(diag.best_response, '') AS `Response to Treatment`,
-       coalesce(co.cohort_description, '') AS `Cohort`
-order by c.case_id asc
-limit 100
+        coalesce(s.clinical_study_type, '') AS  `Study Type`,
         coalesce(demo.breed, '') AS Breed ,
         coalesce(diag.disease_term, '') AS Diagnosis ,
         coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
@@ -125,12 +109,13 @@
 limit 100</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;--(c:case)
-MATCH (c)&lt;--(demo:demographic)
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
 MATCH (c)&lt;--(diag:diagnosis)
-MATCH (samp:sample)--&gt;(c)
-MATCH (f:file)--&gt;(parent)
-WHERE  s.clinical_study_designation in ['GLIOMA01'] and samp.sample_site in ['Hemispheric'] and samp.summarized_sample_type in ['Primary Malignant Tumor Tissue'] and samp.specific_sample_pathology in ['Oligodendroglioma']
+WHERE labels(parent)[0] IN  ['case'] AND s.clinical_study_designation in ['GLIOMA01'] and f.file_format in ['gz'] and f.file_type in ['Variant Call File']
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -148,13 +133,44 @@
 limit 100</t>
   </si>
   <si>
+    <t>MATCH (f:file)--&gt;(s:study)
+MATCH (s)&lt;--(c:case)&lt;--(diag:diagnosis)
+MATCH (samp:sample)--&gt;(c)
+MATCH (c)&lt;--(demo:demographic)
+WHERE s.clinical_study_designation IN ['GLIOMA01'] and labels(s)[0] IN  ['case'] and f.file_format in ['gz'] and f.file_type in ['Variant Call File']
+WITH
+        DISTINCT f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`
+  order by 'File Name' asc
+  limit 100</t>
+  </si>
+  <si>
     <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-MATCH (diag:diagnosis)--&gt;(c)
-MATCH (s:study)&lt;--(c)
-WHERE s.clinical_study_designation IN ['GLIOMA01'] 
-MATCH (f)-[*]-&gt;(samp:sample)
-where  samp.sample_site in ['Hemispheric'] and samp.summarized_sample_type in ['Primary Malignant Tumor Tissue'] and samp.specific_sample_pathology in ['Oligodendroglioma']
+MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+WHERE labels(parent)[0] IN ['case'] and f.file_format in ['gz'] and f.file_type in ['Variant Call File']
+MATCH (c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+Where s.clinical_study_designation in ['GLIOMA01']
+OPTIONAL MATCH (samp:sample)--&gt;(f)
 WITH
         DISTINCT f, parent, c, demo, diag, s, samp,
         ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
@@ -180,39 +196,7 @@
         coalesce(demo.breed,'') AS Breed ,
         coalesce(diag.disease_term,'') AS Diagnosis
         order by f.file_name asc
-        limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (s)&lt;--(c:case)&lt;--(diag:diagnosis)
-MATCH (r:registration)--&gt;(c)
-MATCH (c)&lt;--(demo:demographic)
-MATCH (f:file)--&gt;(s:study)
-MATCH (c)&lt;--(demo:demographic), (c)&lt;--(samp:sample)
-MATCH (f:file)--&gt;(parent)
-WHERE  s.clinical_study_designation in ['GLIOMA01'] and samp.sample_site in ['Hemispheric'] and samp.summarized_sample_type in ['Primary Malignant Tumor Tissue'] and samp.specific_sample_pathology in ['Oligodendroglioma']
-MATCH (s)&lt;--(c:case)&lt;--(diag:diagnosis)
-WITH
-        DISTINCT f, c, demo, diag, s,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(f.file_size)/log(1024))) as i,
-        2 as precision
-WITH
-        f, c, demo, diag, s,
-        f.file_size /(1024^i) AS value, 10^precision AS factor,
-        units[i] as unit
-        WITH
-        f,  c, demo, diag, s, unit,
-        round(factor * value)/factor AS size
-RETURN DISTINCT
-  coalesce(f.file_name, '') AS `File Name`,
-  coalesce(f.file_type, '') AS `File Type`,
-  coalesce("study", '') AS `Association`,
-  coalesce(f.file_description, '') AS `Description`,
-  coalesce(f.file_format, '') AS  Format,
-  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
-  coalesce(s.clinical_study_designation,'') AS `Study Code`
-  order by 'File Name' asc
-  limit 100</t>
+       limit 100</t>
   </si>
 </sst>
 </file>
@@ -593,7 +577,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -661,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -678,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
